--- a/data/bali_occupancy.xlsx
+++ b/data/bali_occupancy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M249"/>
+  <dimension ref="A1:M251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1123,7 +1123,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>Dorm Room</t>
@@ -1186,7 +1190,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>Twin Room</t>
@@ -1249,7 +1257,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>Private Room</t>
@@ -2703,7 +2715,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>Dorm Room</t>
@@ -2766,7 +2782,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>Twin Room</t>
@@ -2829,7 +2849,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
           <t>Private Room</t>
@@ -3601,7 +3625,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
           <t>Dorm Room</t>
@@ -3664,7 +3692,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>Twin Room</t>
@@ -3727,7 +3759,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>Private Room</t>
@@ -4558,7 +4594,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
           <t>Dorm Room</t>
@@ -4621,7 +4661,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>Twin Room</t>
@@ -4684,7 +4728,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
           <t>Twin Deluxe Room</t>
@@ -4747,7 +4795,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr">
         <is>
           <t>Private Room</t>
@@ -5578,7 +5630,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr">
         <is>
           <t>Dorm Room</t>
@@ -5641,7 +5697,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I81" t="inlineStr">
         <is>
           <t>Twin Room</t>
@@ -5704,7 +5764,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr">
         <is>
           <t>Twin Deluxe Room</t>
@@ -5767,7 +5831,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I83" t="inlineStr">
         <is>
           <t>Private Room</t>
@@ -6850,7 +6918,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I100" t="inlineStr">
         <is>
           <t>Dorm Room</t>
@@ -6913,7 +6985,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I101" t="inlineStr">
         <is>
           <t>Twin Room</t>
@@ -6976,7 +7052,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I102" t="inlineStr">
         <is>
           <t>Twin Deluxe Room</t>
@@ -7039,7 +7119,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I103" t="inlineStr">
         <is>
           <t>Private Room</t>
@@ -7732,7 +7816,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I114" t="inlineStr">
         <is>
           <t>Dorm Room</t>
@@ -7795,7 +7883,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I115" t="inlineStr">
         <is>
           <t>Twin Room</t>
@@ -7858,7 +7950,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I116" t="inlineStr">
         <is>
           <t>Twin Deluxe Room</t>
@@ -7921,7 +8017,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I117" t="inlineStr">
         <is>
           <t>Private Room</t>
@@ -7984,7 +8084,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I118" t="inlineStr">
         <is>
           <t>Private Deluxe Room</t>
@@ -8752,7 +8856,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I130" t="inlineStr">
         <is>
           <t>Dorm Room</t>
@@ -8815,7 +8923,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I131" t="inlineStr">
         <is>
           <t>Twin Room</t>
@@ -8878,7 +8990,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I132" t="inlineStr">
         <is>
           <t>Twin Deluxe Room</t>
@@ -8941,7 +9057,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I133" t="inlineStr">
         <is>
           <t>Private Room</t>
@@ -9898,7 +10018,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I148" t="inlineStr">
         <is>
           <t>Dorm Room</t>
@@ -9961,7 +10085,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I149" t="inlineStr">
         <is>
           <t>Twin Room</t>
@@ -10024,7 +10152,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I150" t="inlineStr">
         <is>
           <t>Twin Deluxe Room</t>
@@ -10087,7 +10219,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I151" t="inlineStr">
         <is>
           <t>Private Room</t>
@@ -11107,7 +11243,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I167" t="inlineStr">
         <is>
           <t>Dorm Room</t>
@@ -11170,7 +11310,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I168" t="inlineStr">
         <is>
           <t>Twin Room</t>
@@ -11233,7 +11377,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I169" t="inlineStr">
         <is>
           <t>Twin Deluxe Room</t>
@@ -11296,7 +11444,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I170" t="inlineStr">
         <is>
           <t>Private Room</t>
@@ -11359,7 +11511,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I171" t="inlineStr">
         <is>
           <t>Private Deluxe Room</t>
@@ -12127,7 +12283,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I183" t="inlineStr">
         <is>
           <t>Dorm Room</t>
@@ -12190,7 +12350,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I184" t="inlineStr">
         <is>
           <t>Twin Room</t>
@@ -12253,7 +12417,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I185" t="inlineStr">
         <is>
           <t>Twin Deluxe Room</t>
@@ -12316,7 +12484,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I186" t="inlineStr">
         <is>
           <t>Private Room</t>
@@ -13210,7 +13382,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I200" t="inlineStr">
         <is>
           <t>Dorm Room</t>
@@ -13273,7 +13449,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I201" t="inlineStr">
         <is>
           <t>Twin Room</t>
@@ -13336,7 +13516,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I202" t="inlineStr">
         <is>
           <t>Twin Deluxe Room</t>
@@ -13399,7 +13583,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I203" t="inlineStr">
         <is>
           <t>Private Room</t>
@@ -14419,7 +14607,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr"/>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I219" t="inlineStr">
         <is>
           <t>Dorm Room</t>
@@ -14482,7 +14674,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr"/>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I220" t="inlineStr">
         <is>
           <t>Twin Room</t>
@@ -14545,7 +14741,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr"/>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I221" t="inlineStr">
         <is>
           <t>Twin Deluxe Room</t>
@@ -14608,7 +14808,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr"/>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I222" t="inlineStr">
         <is>
           <t>Private Room</t>
@@ -14671,7 +14875,11 @@
           <t>Melati</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr"/>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I223" t="inlineStr">
         <is>
           <t>Private Deluxe Room</t>
@@ -15641,17 +15849,17 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>91%</t>
         </is>
       </c>
     </row>
@@ -15775,17 +15983,17 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>83%</t>
         </is>
       </c>
     </row>
@@ -15956,33 +16164,37 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Pelaga</t>
-        </is>
-      </c>
-      <c r="H243" t="inlineStr"/>
+          <t>Melati</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Twin Room</t>
+          <t>Private Deluxe Room</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -16025,17 +16237,17 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Private Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -16088,17 +16300,17 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Villa</t>
+          <t>Private Room</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -16135,33 +16347,33 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>25 Nov 2024</t>
+          <t>18 Nov 2024</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>14 Dec 2024</t>
+          <t>7 Dec 2024</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Yoga Amertham</t>
+          <t>Pelaga</t>
         </is>
       </c>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Dorm Room</t>
+          <t>Villa</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -16214,17 +16426,17 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Twin Room</t>
+          <t>Dorm Room</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -16277,7 +16489,7 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Private Room</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -16287,17 +16499,17 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -16340,27 +16552,153 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
+          <t>Private Room</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>25 Nov 2024</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>14 Dec 2024</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Yoga Amertham</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr">
+        <is>
           <t>Triple Room</t>
         </is>
       </c>
-      <c r="J249" t="inlineStr">
+      <c r="J250" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="K249" t="inlineStr">
+      <c r="K250" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M249" t="inlineStr">
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr">
         <is>
           <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>25 Nov 2024</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>14 Dec 2024</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Yoga Amertham</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Budget Room</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>0%</t>
         </is>
       </c>
     </row>

--- a/data/bali_occupancy.xlsx
+++ b/data/bali_occupancy.xlsx
@@ -15134,7 +15134,7 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Dorm Room</t>
+          <t>Dorm Room:</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -15197,7 +15197,7 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Twin Room</t>
+          <t>Twin Room:</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -15260,7 +15260,7 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Private Room</t>
+          <t>Private Room:</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -15386,7 +15386,7 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Dorm Room</t>
+          <t>Dorm Room:</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -15449,7 +15449,7 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Twin Room</t>
+          <t>Twin Room:</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -15512,7 +15512,7 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Triple Room</t>
+          <t>Triple Room:</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -15575,7 +15575,7 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Private Room</t>
+          <t>Private Room:</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -16426,7 +16426,7 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Dorm Room</t>
+          <t>Dorm Room:</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -16489,7 +16489,7 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Twin Room</t>
+          <t>Twin Room:</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -16499,17 +16499,17 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>88%</t>
         </is>
       </c>
     </row>
@@ -16552,7 +16552,7 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Private Room</t>
+          <t>Private Room:</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -16562,17 +16562,17 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>38%</t>
         </is>
       </c>
     </row>
@@ -16625,17 +16625,17 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>89%</t>
         </is>
       </c>
     </row>

--- a/data/bali_occupancy.xlsx
+++ b/data/bali_occupancy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M251"/>
+  <dimension ref="A1:M283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15134,7 +15134,7 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Dorm Room:</t>
+          <t>Dorm Room</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -15197,7 +15197,7 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Twin Room:</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -15260,7 +15260,7 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Private Room:</t>
+          <t>Private Room</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -15386,7 +15386,7 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Dorm Room:</t>
+          <t>Dorm Room</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -15449,7 +15449,7 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Twin Room:</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -15512,7 +15512,7 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Triple Room:</t>
+          <t>Triple Room</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -15575,7 +15575,7 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Private Room:</t>
+          <t>Private Room</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -16426,7 +16426,7 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Dorm Room:</t>
+          <t>Dorm Room</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -16489,7 +16489,7 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Twin Room:</t>
+          <t>Twin Room</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -16552,7 +16552,7 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Private Room:</t>
+          <t>Private Room</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -16697,6 +16697,2066 @@
         </is>
       </c>
       <c r="M251" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>21 Dec 2024</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>The Mansion</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Dorm Room</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>2 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>21 Dec 2024</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>The Mansion</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Twin Room</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>21 Dec 2024</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>The Mansion</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Triple Room</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>21 Dec 2024</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>The Mansion</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Private Room</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>9 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>28 Dec 2024</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>The Mansion</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Saraswati</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Dorm Room</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>9 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>28 Dec 2024</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>The Mansion</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Saraswati</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Twin Room</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>9 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>28 Dec 2024</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>The Mansion</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Saraswati</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Private Room</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>9 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>28 Dec 2024</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Melati</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Dorm Room</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>9 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>28 Dec 2024</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Melati</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>Twin Room</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>9 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>28 Dec 2024</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Melati</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Twin Deluxe Room</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>9 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>28 Dec 2024</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Melati</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Private Room</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>9 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>28 Dec 2024</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Melati</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Lakshmi</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>Private Deluxe Room</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>9 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>28 Dec 2024</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Pelaga</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Twin Room</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>9 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>28 Dec 2024</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Pelaga</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>Private Room</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>9 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>28 Dec 2024</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Pelaga</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>16 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>5 Jan 2025</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Yoga Amertham</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>Dorm Room</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>16 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>5 Jan 2025</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Yoga Amertham</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Twin Room</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>16 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>5 Jan 2025</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Yoga Amertham</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Private Room</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>16 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>5 Jan 2025</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Yoga Amertham</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>Triple Room</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>16 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>5 Jan 2025</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Yoga Amertham</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>Budget Room</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>23 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>11 Jan 2025</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>The Mansion</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>Dorm Room</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>23 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>11 Jan 2025</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>The Mansion</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>Twin Room</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>23 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>11 Jan 2025</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>The Mansion</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>Triple Room</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>23 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>11 Jan 2025</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>The Mansion</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>Private Room</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>30 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>19 Jan 2025</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>The Mansion</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Saraswati</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>Dorm Room</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>30 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>19 Jan 2025</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>The Mansion</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Saraswati</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>Twin Room</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>30 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>19 Jan 2025</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>The Mansion</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Saraswati</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Private Room</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>30 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>19 Jan 2025</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Melati</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>Dorm Room</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>30 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>19 Jan 2025</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Melati</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>Twin Room</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>30 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>19 Jan 2025</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Melati</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>Twin Deluxe Room</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>30 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>19 Jan 2025</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Melati</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>Private Room</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>30 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>19 Jan 2025</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Melati</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Private Deluxe Room</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr">
         <is>
           <t>0%</t>
         </is>

--- a/data/bali_occupancy.xlsx
+++ b/data/bali_occupancy.xlsx
@@ -16877,17 +16877,17 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>67%</t>
         </is>
       </c>
     </row>
@@ -17141,17 +17141,17 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>91%</t>
         </is>
       </c>
     </row>
@@ -17208,17 +17208,17 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>94%</t>
         </is>
       </c>
     </row>
@@ -17791,7 +17791,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -17854,17 +17854,17 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>69%</t>
         </is>
       </c>
     </row>
@@ -17917,7 +17917,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -18043,17 +18043,17 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>88%</t>
         </is>
       </c>
     </row>
@@ -18106,17 +18106,17 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>95%</t>
         </is>
       </c>
     </row>
@@ -18169,17 +18169,17 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -18232,7 +18232,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -18366,17 +18366,17 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/data/bali_occupancy.xlsx
+++ b/data/bali_occupancy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M283"/>
+  <dimension ref="A1:Q286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,22 @@
           <t>Occupancy</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr"/>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Disc</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -562,6 +578,10 @@
           <t>83%</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -625,6 +645,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -688,6 +712,10 @@
           <t>89%</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -751,6 +779,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -818,6 +850,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -885,6 +921,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -952,6 +992,10 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1019,6 +1063,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1086,6 +1134,10 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1153,6 +1205,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1220,6 +1276,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1287,6 +1347,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1354,6 +1418,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1421,6 +1489,10 @@
           <t>92%</t>
         </is>
       </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1488,6 +1560,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1555,6 +1631,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1622,6 +1702,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1689,6 +1773,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1756,6 +1844,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1819,6 +1911,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1882,6 +1978,10 @@
           <t>94%</t>
         </is>
       </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1945,6 +2045,10 @@
           <t>94%</t>
         </is>
       </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2008,6 +2112,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2075,6 +2183,10 @@
           <t>88%</t>
         </is>
       </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2142,6 +2254,10 @@
           <t>92%</t>
         </is>
       </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2209,6 +2325,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2276,6 +2396,10 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2343,6 +2467,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2410,6 +2538,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2477,6 +2609,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2544,6 +2680,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2611,6 +2751,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2678,6 +2822,10 @@
           <t>0%</t>
         </is>
       </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2745,6 +2893,10 @@
           <t>92%</t>
         </is>
       </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2812,6 +2964,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2879,6 +3035,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2942,6 +3102,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3005,6 +3169,10 @@
           <t>94%</t>
         </is>
       </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3068,6 +3236,10 @@
           <t>89%</t>
         </is>
       </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3131,6 +3303,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3198,6 +3374,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3265,6 +3445,10 @@
           <t>93%</t>
         </is>
       </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3332,6 +3516,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3399,6 +3587,10 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3462,6 +3654,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3525,6 +3721,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3588,6 +3788,10 @@
           <t>92%</t>
         </is>
       </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3655,6 +3859,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3722,6 +3930,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3789,6 +4001,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3852,6 +4068,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3915,6 +4135,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3978,6 +4202,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4041,6 +4269,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4104,6 +4336,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4167,6 +4403,10 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4230,6 +4470,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4293,6 +4537,10 @@
           <t>78%</t>
         </is>
       </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4356,6 +4604,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4423,6 +4675,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4490,6 +4746,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4557,6 +4817,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4624,6 +4888,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4691,6 +4959,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4758,6 +5030,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4825,6 +5101,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4888,6 +5168,10 @@
           <t>92%</t>
         </is>
       </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4951,6 +5235,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5014,6 +5302,10 @@
           <t>94%</t>
         </is>
       </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5077,6 +5369,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5140,6 +5436,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5203,6 +5503,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5266,6 +5570,10 @@
           <t>96%</t>
         </is>
       </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5329,6 +5637,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5392,6 +5704,10 @@
           <t>96%</t>
         </is>
       </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5459,6 +5775,10 @@
           <t>88%</t>
         </is>
       </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5526,6 +5846,10 @@
           <t>92%</t>
         </is>
       </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5593,6 +5917,10 @@
           <t>82%</t>
         </is>
       </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5660,6 +5988,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5727,6 +6059,10 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5794,6 +6130,10 @@
           <t>75%</t>
         </is>
       </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5861,6 +6201,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5924,6 +6268,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5987,6 +6335,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6050,6 +6402,10 @@
           <t>83%</t>
         </is>
       </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6113,6 +6469,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6176,6 +6536,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6239,6 +6603,10 @@
           <t>94%</t>
         </is>
       </c>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6302,6 +6670,10 @@
           <t>33%</t>
         </is>
       </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6365,6 +6737,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6428,6 +6804,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6491,6 +6871,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6554,6 +6938,10 @@
           <t>68%</t>
         </is>
       </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6617,6 +7005,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6680,6 +7072,10 @@
           <t>78%</t>
         </is>
       </c>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6747,6 +7143,10 @@
           <t>88%</t>
         </is>
       </c>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6814,6 +7214,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6881,6 +7285,10 @@
           <t>92%</t>
         </is>
       </c>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6948,6 +7356,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7015,6 +7427,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7082,6 +7498,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7149,6 +7569,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7212,6 +7636,10 @@
           <t>25%</t>
         </is>
       </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7275,6 +7703,10 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7338,6 +7770,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7401,6 +7837,10 @@
           <t>88%</t>
         </is>
       </c>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7464,6 +7904,10 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7527,6 +7971,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7590,6 +8038,10 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7653,6 +8105,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7716,6 +8172,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7779,6 +8239,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7846,6 +8310,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7913,6 +8381,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7980,6 +8452,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8047,6 +8523,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8114,6 +8594,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8177,6 +8661,10 @@
           <t>92%</t>
         </is>
       </c>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8240,6 +8728,10 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8303,6 +8795,10 @@
           <t>44%</t>
         </is>
       </c>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8366,6 +8862,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8429,6 +8929,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8492,6 +8996,10 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8555,6 +9063,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8618,6 +9130,10 @@
           <t>74%</t>
         </is>
       </c>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8685,6 +9201,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8752,6 +9272,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8819,6 +9343,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8886,6 +9414,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8953,6 +9485,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9020,6 +9556,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9087,6 +9627,10 @@
           <t>71%</t>
         </is>
       </c>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9150,6 +9694,10 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9213,6 +9761,10 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9276,6 +9828,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9339,6 +9895,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9402,6 +9962,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9465,6 +10029,10 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9528,6 +10096,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -9591,6 +10163,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9654,6 +10230,10 @@
           <t>96%</t>
         </is>
       </c>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -9717,6 +10297,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -9780,6 +10364,10 @@
           <t>83%</t>
         </is>
       </c>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9847,6 +10435,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9914,6 +10506,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9981,6 +10577,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10048,6 +10648,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10115,6 +10719,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10182,6 +10790,10 @@
           <t>75%</t>
         </is>
       </c>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10249,6 +10861,10 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10312,6 +10928,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -10375,6 +10995,10 @@
           <t>94%</t>
         </is>
       </c>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -10438,6 +11062,10 @@
           <t>78%</t>
         </is>
       </c>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -10501,6 +11129,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -10564,6 +11196,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -10627,6 +11263,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -10690,6 +11330,10 @@
           <t>95%</t>
         </is>
       </c>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -10753,6 +11397,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -10816,6 +11464,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -10879,6 +11531,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -10942,6 +11598,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11005,6 +11665,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -11072,6 +11736,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11139,6 +11807,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -11206,6 +11878,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11273,6 +11949,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -11340,6 +12020,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -11407,6 +12091,10 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -11474,6 +12162,10 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -11541,6 +12233,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -11604,6 +12300,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -11667,6 +12367,10 @@
           <t>93%</t>
         </is>
       </c>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -11730,6 +12434,10 @@
           <t>80%</t>
         </is>
       </c>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -11793,6 +12501,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -11856,6 +12568,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -11919,6 +12635,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -11982,6 +12702,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -12045,6 +12769,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -12112,6 +12840,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -12179,6 +12911,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -12246,6 +12982,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -12313,6 +13053,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -12380,6 +13124,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -12447,6 +13195,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -12514,6 +13266,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -12577,6 +13333,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -12640,6 +13400,10 @@
           <t>47%</t>
         </is>
       </c>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -12703,6 +13467,10 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -12766,6 +13534,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -12829,6 +13601,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -12892,6 +13668,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -12955,6 +13735,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -13018,6 +13802,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -13081,6 +13869,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -13144,6 +13936,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -13211,6 +14007,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -13278,6 +14078,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -13345,6 +14149,10 @@
           <t>90%</t>
         </is>
       </c>
+      <c r="N199" t="inlineStr"/>
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -13412,6 +14220,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N200" t="inlineStr"/>
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -13479,6 +14291,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N201" t="inlineStr"/>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -13546,6 +14362,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N202" t="inlineStr"/>
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -13613,6 +14433,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N203" t="inlineStr"/>
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -13676,6 +14500,10 @@
           <t>90%</t>
         </is>
       </c>
+      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -13739,6 +14567,10 @@
           <t>75%</t>
         </is>
       </c>
+      <c r="N205" t="inlineStr"/>
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -13802,6 +14634,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N206" t="inlineStr"/>
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -13865,6 +14701,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N207" t="inlineStr"/>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -13928,6 +14768,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N208" t="inlineStr"/>
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -13991,6 +14835,10 @@
           <t>75%</t>
         </is>
       </c>
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -14054,6 +14902,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N210" t="inlineStr"/>
+      <c r="O210" t="inlineStr"/>
+      <c r="P210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -14117,6 +14969,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N211" t="inlineStr"/>
+      <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr"/>
+      <c r="Q211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -14180,6 +15036,10 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="N212" t="inlineStr"/>
+      <c r="O212" t="inlineStr"/>
+      <c r="P212" t="inlineStr"/>
+      <c r="Q212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -14243,6 +15103,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N213" t="inlineStr"/>
+      <c r="O213" t="inlineStr"/>
+      <c r="P213" t="inlineStr"/>
+      <c r="Q213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -14306,6 +15170,10 @@
           <t>74%</t>
         </is>
       </c>
+      <c r="N214" t="inlineStr"/>
+      <c r="O214" t="inlineStr"/>
+      <c r="P214" t="inlineStr"/>
+      <c r="Q214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -14369,6 +15237,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N215" t="inlineStr"/>
+      <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -14436,6 +15308,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N216" t="inlineStr"/>
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr"/>
+      <c r="Q216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -14503,6 +15379,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N217" t="inlineStr"/>
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -14570,6 +15450,10 @@
           <t>82%</t>
         </is>
       </c>
+      <c r="N218" t="inlineStr"/>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -14637,6 +15521,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N219" t="inlineStr"/>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -14704,6 +15592,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N220" t="inlineStr"/>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr"/>
+      <c r="Q220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -14771,6 +15663,10 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="N221" t="inlineStr"/>
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr"/>
+      <c r="Q221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -14838,6 +15734,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N222" t="inlineStr"/>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
+      <c r="Q222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -14905,6 +15805,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N223" t="inlineStr"/>
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr"/>
+      <c r="Q223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -14968,6 +15872,10 @@
           <t>83%</t>
         </is>
       </c>
+      <c r="N224" t="inlineStr"/>
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="inlineStr"/>
+      <c r="Q224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -15031,6 +15939,10 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="N225" t="inlineStr"/>
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr"/>
+      <c r="Q225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -15094,6 +16006,10 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="N226" t="inlineStr"/>
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr"/>
+      <c r="Q226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -15157,6 +16073,10 @@
           <t>92%</t>
         </is>
       </c>
+      <c r="N227" t="inlineStr"/>
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr"/>
+      <c r="Q227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -15220,6 +16140,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N228" t="inlineStr"/>
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr"/>
+      <c r="Q228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -15283,6 +16207,10 @@
           <t>88%</t>
         </is>
       </c>
+      <c r="N229" t="inlineStr"/>
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr"/>
+      <c r="Q229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -15346,6 +16274,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N230" t="inlineStr"/>
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr"/>
+      <c r="Q230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -15409,6 +16341,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -15472,6 +16408,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N232" t="inlineStr"/>
+      <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr"/>
+      <c r="Q232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -15535,6 +16475,10 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="N233" t="inlineStr"/>
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -15598,6 +16542,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr"/>
+      <c r="Q234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -15661,6 +16609,10 @@
           <t>0%</t>
         </is>
       </c>
+      <c r="N235" t="inlineStr"/>
+      <c r="O235" t="inlineStr"/>
+      <c r="P235" t="inlineStr"/>
+      <c r="Q235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -15728,6 +16680,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N236" t="inlineStr"/>
+      <c r="O236" t="inlineStr"/>
+      <c r="P236" t="inlineStr"/>
+      <c r="Q236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -15795,6 +16751,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N237" t="inlineStr"/>
+      <c r="O237" t="inlineStr"/>
+      <c r="P237" t="inlineStr"/>
+      <c r="Q237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -15862,6 +16822,10 @@
           <t>91%</t>
         </is>
       </c>
+      <c r="N238" t="inlineStr"/>
+      <c r="O238" t="inlineStr"/>
+      <c r="P238" t="inlineStr"/>
+      <c r="Q238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -15929,6 +16893,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N239" t="inlineStr"/>
+      <c r="O239" t="inlineStr"/>
+      <c r="P239" t="inlineStr"/>
+      <c r="Q239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -15996,6 +16964,10 @@
           <t>83%</t>
         </is>
       </c>
+      <c r="N240" t="inlineStr"/>
+      <c r="O240" t="inlineStr"/>
+      <c r="P240" t="inlineStr"/>
+      <c r="Q240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -16063,6 +17035,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N241" t="inlineStr"/>
+      <c r="O241" t="inlineStr"/>
+      <c r="P241" t="inlineStr"/>
+      <c r="Q241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -16130,6 +17106,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N242" t="inlineStr"/>
+      <c r="O242" t="inlineStr"/>
+      <c r="P242" t="inlineStr"/>
+      <c r="Q242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -16197,6 +17177,10 @@
           <t>0%</t>
         </is>
       </c>
+      <c r="N243" t="inlineStr"/>
+      <c r="O243" t="inlineStr"/>
+      <c r="P243" t="inlineStr"/>
+      <c r="Q243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -16260,6 +17244,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N244" t="inlineStr"/>
+      <c r="O244" t="inlineStr"/>
+      <c r="P244" t="inlineStr"/>
+      <c r="Q244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -16323,6 +17311,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N245" t="inlineStr"/>
+      <c r="O245" t="inlineStr"/>
+      <c r="P245" t="inlineStr"/>
+      <c r="Q245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -16386,6 +17378,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N246" t="inlineStr"/>
+      <c r="O246" t="inlineStr"/>
+      <c r="P246" t="inlineStr"/>
+      <c r="Q246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -16449,6 +17445,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N247" t="inlineStr"/>
+      <c r="O247" t="inlineStr"/>
+      <c r="P247" t="inlineStr"/>
+      <c r="Q247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -16512,6 +17512,10 @@
           <t>88%</t>
         </is>
       </c>
+      <c r="N248" t="inlineStr"/>
+      <c r="O248" t="inlineStr"/>
+      <c r="P248" t="inlineStr"/>
+      <c r="Q248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -16575,6 +17579,10 @@
           <t>38%</t>
         </is>
       </c>
+      <c r="N249" t="inlineStr"/>
+      <c r="O249" t="inlineStr"/>
+      <c r="P249" t="inlineStr"/>
+      <c r="Q249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -16638,6 +17646,10 @@
           <t>89%</t>
         </is>
       </c>
+      <c r="N250" t="inlineStr"/>
+      <c r="O250" t="inlineStr"/>
+      <c r="P250" t="inlineStr"/>
+      <c r="Q250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -16701,6 +17713,10 @@
           <t>0%</t>
         </is>
       </c>
+      <c r="N251" t="inlineStr"/>
+      <c r="O251" t="inlineStr"/>
+      <c r="P251" t="inlineStr"/>
+      <c r="Q251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -16764,6 +17780,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N252" t="inlineStr"/>
+      <c r="O252" t="inlineStr"/>
+      <c r="P252" t="inlineStr"/>
+      <c r="Q252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -16827,6 +17847,10 @@
           <t>36%</t>
         </is>
       </c>
+      <c r="N253" t="inlineStr"/>
+      <c r="O253" t="inlineStr"/>
+      <c r="P253" t="inlineStr"/>
+      <c r="Q253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -16890,6 +17914,10 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="N254" t="inlineStr"/>
+      <c r="O254" t="inlineStr"/>
+      <c r="P254" t="inlineStr"/>
+      <c r="Q254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -16953,6 +17981,10 @@
           <t>87%</t>
         </is>
       </c>
+      <c r="N255" t="inlineStr"/>
+      <c r="O255" t="inlineStr"/>
+      <c r="P255" t="inlineStr"/>
+      <c r="Q255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -17020,6 +18052,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N256" t="inlineStr"/>
+      <c r="O256" t="inlineStr"/>
+      <c r="P256" t="inlineStr"/>
+      <c r="Q256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -17087,6 +18123,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N257" t="inlineStr"/>
+      <c r="O257" t="inlineStr"/>
+      <c r="P257" t="inlineStr"/>
+      <c r="Q257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -17154,6 +18194,10 @@
           <t>91%</t>
         </is>
       </c>
+      <c r="N258" t="inlineStr"/>
+      <c r="O258" t="inlineStr"/>
+      <c r="P258" t="inlineStr"/>
+      <c r="Q258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -17221,6 +18265,10 @@
           <t>94%</t>
         </is>
       </c>
+      <c r="N259" t="inlineStr"/>
+      <c r="O259" t="inlineStr"/>
+      <c r="P259" t="inlineStr"/>
+      <c r="Q259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -17288,6 +18336,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N260" t="inlineStr"/>
+      <c r="O260" t="inlineStr"/>
+      <c r="P260" t="inlineStr"/>
+      <c r="Q260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -17355,6 +18407,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N261" t="inlineStr"/>
+      <c r="O261" t="inlineStr"/>
+      <c r="P261" t="inlineStr"/>
+      <c r="Q261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -17422,6 +18478,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N262" t="inlineStr"/>
+      <c r="O262" t="inlineStr"/>
+      <c r="P262" t="inlineStr"/>
+      <c r="Q262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -17489,6 +18549,10 @@
           <t>0%</t>
         </is>
       </c>
+      <c r="N263" t="inlineStr"/>
+      <c r="O263" t="inlineStr"/>
+      <c r="P263" t="inlineStr"/>
+      <c r="Q263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -17552,6 +18616,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N264" t="inlineStr"/>
+      <c r="O264" t="inlineStr"/>
+      <c r="P264" t="inlineStr"/>
+      <c r="Q264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -17615,6 +18683,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N265" t="inlineStr"/>
+      <c r="O265" t="inlineStr"/>
+      <c r="P265" t="inlineStr"/>
+      <c r="Q265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -17678,6 +18750,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N266" t="inlineStr"/>
+      <c r="O266" t="inlineStr"/>
+      <c r="P266" t="inlineStr"/>
+      <c r="Q266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -17741,6 +18817,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N267" t="inlineStr"/>
+      <c r="O267" t="inlineStr"/>
+      <c r="P267" t="inlineStr"/>
+      <c r="Q267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -17804,6 +18884,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N268" t="inlineStr"/>
+      <c r="O268" t="inlineStr"/>
+      <c r="P268" t="inlineStr"/>
+      <c r="Q268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -17867,6 +18951,10 @@
           <t>69%</t>
         </is>
       </c>
+      <c r="N269" t="inlineStr"/>
+      <c r="O269" t="inlineStr"/>
+      <c r="P269" t="inlineStr"/>
+      <c r="Q269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -17930,6 +19018,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N270" t="inlineStr"/>
+      <c r="O270" t="inlineStr"/>
+      <c r="P270" t="inlineStr"/>
+      <c r="Q270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -17993,6 +19085,10 @@
           <t>0%</t>
         </is>
       </c>
+      <c r="N271" t="inlineStr"/>
+      <c r="O271" t="inlineStr"/>
+      <c r="P271" t="inlineStr"/>
+      <c r="Q271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -18056,6 +19152,10 @@
           <t>88%</t>
         </is>
       </c>
+      <c r="N272" t="inlineStr"/>
+      <c r="O272" t="inlineStr"/>
+      <c r="P272" t="inlineStr"/>
+      <c r="Q272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -18119,6 +19219,10 @@
           <t>95%</t>
         </is>
       </c>
+      <c r="N273" t="inlineStr"/>
+      <c r="O273" t="inlineStr"/>
+      <c r="P273" t="inlineStr"/>
+      <c r="Q273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -18182,6 +19286,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N274" t="inlineStr"/>
+      <c r="O274" t="inlineStr"/>
+      <c r="P274" t="inlineStr"/>
+      <c r="Q274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -18245,6 +19353,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N275" t="inlineStr"/>
+      <c r="O275" t="inlineStr"/>
+      <c r="P275" t="inlineStr"/>
+      <c r="Q275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -18312,6 +19424,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N276" t="inlineStr"/>
+      <c r="O276" t="inlineStr"/>
+      <c r="P276" t="inlineStr"/>
+      <c r="Q276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -18379,6 +19495,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N277" t="inlineStr"/>
+      <c r="O277" t="inlineStr"/>
+      <c r="P277" t="inlineStr"/>
+      <c r="Q277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -18446,6 +19566,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N278" t="inlineStr"/>
+      <c r="O278" t="inlineStr"/>
+      <c r="P278" t="inlineStr"/>
+      <c r="Q278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -18509,6 +19633,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N279" t="inlineStr"/>
+      <c r="O279" t="inlineStr"/>
+      <c r="P279" t="inlineStr"/>
+      <c r="Q279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -18572,6 +19700,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N280" t="inlineStr"/>
+      <c r="O280" t="inlineStr"/>
+      <c r="P280" t="inlineStr"/>
+      <c r="Q280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -18635,6 +19767,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N281" t="inlineStr"/>
+      <c r="O281" t="inlineStr"/>
+      <c r="P281" t="inlineStr"/>
+      <c r="Q281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -18698,6 +19834,10 @@
           <t>100%</t>
         </is>
       </c>
+      <c r="N282" t="inlineStr"/>
+      <c r="O282" t="inlineStr"/>
+      <c r="P282" t="inlineStr"/>
+      <c r="Q282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -18761,6 +19901,211 @@
           <t>0%</t>
         </is>
       </c>
+      <c r="N283" t="inlineStr"/>
+      <c r="O283" t="inlineStr"/>
+      <c r="P283" t="inlineStr"/>
+      <c r="Q283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>30 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>19 Jan 2025</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>The Mansion</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>Dorm Room</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr"/>
+      <c r="O284" t="inlineStr"/>
+      <c r="P284" t="inlineStr"/>
+      <c r="Q284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>30 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>19 Jan 2025</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>The Mansion</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>Twin Room</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr"/>
+      <c r="O285" t="inlineStr"/>
+      <c r="P285" t="inlineStr"/>
+      <c r="Q285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>200HR</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>30 Dec 2024</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>19 Jan 2025</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>The Mansion</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>Private Room</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N286" t="inlineStr"/>
+      <c r="O286" t="inlineStr"/>
+      <c r="P286" t="inlineStr"/>
+      <c r="Q286" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
